--- a/attendance_report_DECEMBER_2025.xlsx
+++ b/attendance_report_DECEMBER_2025.xlsx
@@ -757,11 +757,11 @@
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
@@ -1819,11 +1819,11 @@
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
@@ -2045,11 +2045,11 @@
         </is>
       </c>
       <c r="F49" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H49" s="3" t="inlineStr">
@@ -2079,11 +2079,11 @@
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H50" s="3" t="inlineStr">
@@ -2343,11 +2343,11 @@
         </is>
       </c>
       <c r="F58" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H58" s="3" t="inlineStr">
@@ -3059,11 +3059,11 @@
         </is>
       </c>
       <c r="F80" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr">
@@ -3689,11 +3689,11 @@
         </is>
       </c>
       <c r="F99" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H99" s="3" t="inlineStr">
@@ -3821,11 +3821,11 @@
         </is>
       </c>
       <c r="F103" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H103" s="3" t="inlineStr">
@@ -4733,11 +4733,11 @@
         </is>
       </c>
       <c r="F131" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H131" s="3" t="inlineStr">
@@ -5529,11 +5529,11 @@
         </is>
       </c>
       <c r="F155" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G155" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H155" s="3" t="inlineStr">
@@ -5597,11 +5597,11 @@
         </is>
       </c>
       <c r="F157" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G157" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H157" s="3" t="inlineStr">
@@ -5763,11 +5763,11 @@
         </is>
       </c>
       <c r="F162" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G162" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H162" s="3" t="inlineStr">
@@ -6511,11 +6511,11 @@
         </is>
       </c>
       <c r="F186" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G186" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H186" s="3" t="inlineStr">
@@ -6915,11 +6915,11 @@
         </is>
       </c>
       <c r="F198" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G198" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H198" s="3" t="inlineStr">
@@ -7549,11 +7549,11 @@
         </is>
       </c>
       <c r="F217" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G217" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H217" s="3" t="inlineStr">
@@ -8879,11 +8879,11 @@
         </is>
       </c>
       <c r="F260" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G260" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H260" s="3" t="inlineStr">
@@ -8947,11 +8947,11 @@
         </is>
       </c>
       <c r="F262" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G262" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H262" s="3" t="inlineStr">
@@ -9245,11 +9245,11 @@
         </is>
       </c>
       <c r="F271" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H271" s="3" t="inlineStr">
@@ -10793,11 +10793,11 @@
         </is>
       </c>
       <c r="F319" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H319" s="3" t="inlineStr">
@@ -13085,11 +13085,11 @@
         </is>
       </c>
       <c r="F393" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G393" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H393" s="3" t="inlineStr">
@@ -13217,11 +13217,11 @@
         </is>
       </c>
       <c r="F397" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G397" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H397" s="3" t="inlineStr">
@@ -13319,11 +13319,11 @@
         </is>
       </c>
       <c r="F400" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G400" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H400" s="3" t="inlineStr">
@@ -14159,11 +14159,11 @@
         </is>
       </c>
       <c r="F426" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G426" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H426" s="3" t="inlineStr">
@@ -14253,11 +14253,11 @@
         </is>
       </c>
       <c r="F429" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G429" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H429" s="3" t="inlineStr">
@@ -19561,11 +19561,11 @@
         </is>
       </c>
       <c r="F603" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G603" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H603" s="3" t="inlineStr">
@@ -20213,11 +20213,11 @@
         </is>
       </c>
       <c r="F623" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G623" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H623" s="3" t="inlineStr">
@@ -22539,11 +22539,11 @@
         </is>
       </c>
       <c r="F696" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G696" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H696" s="3" t="inlineStr">
@@ -22637,11 +22637,11 @@
         </is>
       </c>
       <c r="F699" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G699" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H699" s="3" t="inlineStr">
@@ -22739,11 +22739,11 @@
         </is>
       </c>
       <c r="F702" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G702" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H702" s="3" t="inlineStr">
@@ -22905,11 +22905,11 @@
         </is>
       </c>
       <c r="F707" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G707" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H707" s="3" t="inlineStr">
@@ -27721,11 +27721,11 @@
         </is>
       </c>
       <c r="F863" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G863" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H863" s="3" t="inlineStr">
@@ -32967,11 +32967,11 @@
         </is>
       </c>
       <c r="F1034" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1034" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1034" s="3" t="inlineStr">
@@ -33223,11 +33223,11 @@
         </is>
       </c>
       <c r="F1042" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1042" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1042" s="3" t="inlineStr">
@@ -33453,11 +33453,11 @@
         </is>
       </c>
       <c r="F1049" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1049" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1049" s="3" t="inlineStr">
@@ -33487,11 +33487,11 @@
         </is>
       </c>
       <c r="F1050" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1050" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1050" s="3" t="inlineStr">
@@ -33645,11 +33645,11 @@
         </is>
       </c>
       <c r="F1055" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1055" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1055" s="3" t="inlineStr">
@@ -34661,11 +34661,11 @@
         </is>
       </c>
       <c r="F1087" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1087" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1087" s="3" t="inlineStr">
@@ -36405,11 +36405,11 @@
         </is>
       </c>
       <c r="F1141" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1141" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1141" s="3" t="inlineStr">
@@ -40371,11 +40371,11 @@
         </is>
       </c>
       <c r="F1266" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1266" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1266" s="3" t="inlineStr">
@@ -41643,11 +41643,11 @@
         </is>
       </c>
       <c r="F1306" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1306" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1306" s="3" t="inlineStr">
@@ -41707,11 +41707,11 @@
         </is>
       </c>
       <c r="F1308" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1308" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1308" s="3" t="inlineStr">
@@ -41903,11 +41903,11 @@
         </is>
       </c>
       <c r="F1314" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1314" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1314" s="3" t="inlineStr">
@@ -42099,11 +42099,11 @@
         </is>
       </c>
       <c r="F1320" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1320" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1320" s="3" t="inlineStr">
@@ -42261,11 +42261,11 @@
         </is>
       </c>
       <c r="F1325" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1325" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1325" s="3" t="inlineStr">
@@ -42849,11 +42849,11 @@
         </is>
       </c>
       <c r="F1343" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1343" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1343" s="3" t="inlineStr">
@@ -43079,11 +43079,11 @@
         </is>
       </c>
       <c r="F1350" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1350" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1350" s="3" t="inlineStr">
@@ -45489,11 +45489,11 @@
         </is>
       </c>
       <c r="F1425" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1425" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1425" s="3" t="inlineStr">
@@ -46089,11 +46089,11 @@
         </is>
       </c>
       <c r="F1443" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1443" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1443" s="3" t="inlineStr">
@@ -46157,11 +46157,11 @@
         </is>
       </c>
       <c r="F1445" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1445" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1445" s="3" t="inlineStr">
@@ -46289,11 +46289,11 @@
         </is>
       </c>
       <c r="F1449" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1449" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1449" s="3" t="inlineStr">
@@ -47905,11 +47905,11 @@
         </is>
       </c>
       <c r="F1501" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1501" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1501" s="3" t="inlineStr">
@@ -49001,11 +49001,11 @@
         </is>
       </c>
       <c r="F1535" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1535" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1535" s="3" t="inlineStr">
@@ -49831,11 +49831,11 @@
         </is>
       </c>
       <c r="F1560" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1560" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1560" s="3" t="inlineStr">
@@ -49933,11 +49933,11 @@
         </is>
       </c>
       <c r="F1563" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1563" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1563" s="3" t="inlineStr">
@@ -49967,11 +49967,11 @@
         </is>
       </c>
       <c r="F1564" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1564" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1564" s="3" t="inlineStr">
@@ -50061,11 +50061,11 @@
         </is>
       </c>
       <c r="F1567" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1567" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1567" s="3" t="inlineStr">
@@ -50627,11 +50627,11 @@
         </is>
       </c>
       <c r="F1584" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1584" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1584" s="3" t="inlineStr">
@@ -50695,11 +50695,11 @@
         </is>
       </c>
       <c r="F1586" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1586" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1586" s="3" t="inlineStr">
@@ -50759,11 +50759,11 @@
         </is>
       </c>
       <c r="F1588" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1588" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1588" s="3" t="inlineStr">
@@ -51215,11 +51215,11 @@
         </is>
       </c>
       <c r="F1602" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1602" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1602" s="3" t="inlineStr">
@@ -51909,11 +51909,11 @@
         </is>
       </c>
       <c r="F1623" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1623" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1623" s="3" t="inlineStr">
@@ -52795,11 +52795,11 @@
         </is>
       </c>
       <c r="F1650" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1650" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1650" s="3" t="inlineStr">
@@ -53669,11 +53669,11 @@
         </is>
       </c>
       <c r="F1677" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1677" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1677" s="3" t="inlineStr">
@@ -53861,11 +53861,11 @@
         </is>
       </c>
       <c r="F1683" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1683" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1683" s="3" t="inlineStr">
@@ -53925,11 +53925,11 @@
         </is>
       </c>
       <c r="F1685" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1685" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1685" s="3" t="inlineStr">
@@ -54113,11 +54113,11 @@
         </is>
       </c>
       <c r="F1691" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1691" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1691" s="3" t="inlineStr">
@@ -55057,11 +55057,11 @@
         </is>
       </c>
       <c r="F1721" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1721" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1721" s="3" t="inlineStr">
@@ -55573,11 +55573,11 @@
         </is>
       </c>
       <c r="F1737" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1737" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1737" s="3" t="inlineStr">
@@ -55859,11 +55859,11 @@
         </is>
       </c>
       <c r="F1746" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1746" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1746" s="3" t="inlineStr">
@@ -56439,11 +56439,11 @@
         </is>
       </c>
       <c r="F1764" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1764" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1764" s="3" t="inlineStr">
@@ -57331,11 +57331,11 @@
         </is>
       </c>
       <c r="F1792" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1792" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1792" s="3" t="inlineStr">
@@ -58621,11 +58621,11 @@
         </is>
       </c>
       <c r="F1831" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1831" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1831" s="3" t="inlineStr">
@@ -59405,11 +59405,11 @@
         </is>
       </c>
       <c r="F1855" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1855" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H1855" s="3" t="inlineStr">
@@ -59756,11 +59756,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>180.2644</v>
+        <v>184.2644</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>180:15</t>
+          <t>184:15</t>
         </is>
       </c>
     </row>
@@ -59783,11 +59783,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>96.7145</v>
+        <v>100.7145</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>96:42</t>
+          <t>100:42</t>
         </is>
       </c>
     </row>
@@ -59810,11 +59810,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>167.606</v>
+        <v>175.606</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>167:36</t>
+          <t>175:36</t>
         </is>
       </c>
     </row>
@@ -59837,11 +59837,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>195.8447</v>
+        <v>203.8447</v>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>195:50</t>
+          <t>203:50</t>
         </is>
       </c>
     </row>
@@ -59864,11 +59864,11 @@
         <v>3</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>87.30800000000001</v>
+        <v>99.30800000000001</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>87:18</t>
+          <t>99:18</t>
         </is>
       </c>
     </row>
@@ -59891,11 +59891,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>175.936</v>
+        <v>183.936</v>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>175:56</t>
+          <t>183:56</t>
         </is>
       </c>
     </row>
@@ -59945,11 +59945,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>167.1863</v>
+        <v>171.1863</v>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>167:11</t>
+          <t>171:11</t>
         </is>
       </c>
     </row>
@@ -59972,11 +59972,11 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>208.1763</v>
+        <v>220.1763</v>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>208:10</t>
+          <t>220:10</t>
         </is>
       </c>
     </row>
@@ -59999,11 +59999,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>132.4598</v>
+        <v>148.4598</v>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>132:27</t>
+          <t>148:27</t>
         </is>
       </c>
     </row>
@@ -60026,11 +60026,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -60080,11 +60080,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>208.7594</v>
+        <v>220.7594</v>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>208:45</t>
+          <t>220:45</t>
         </is>
       </c>
     </row>
@@ -60107,11 +60107,11 @@
         <v>2</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>85.3056</v>
+        <v>93.3056</v>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>85:18</t>
+          <t>93:18</t>
         </is>
       </c>
     </row>
@@ -60269,11 +60269,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>159.1895</v>
+        <v>163.1895</v>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>159:11</t>
+          <t>163:11</t>
         </is>
       </c>
     </row>
@@ -60296,11 +60296,11 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>182.1066</v>
+        <v>198.1066</v>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>182:06</t>
+          <t>198:06</t>
         </is>
       </c>
     </row>
@@ -60431,11 +60431,11 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>22.4109</v>
+        <v>26.4109</v>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>22:24</t>
+          <t>26:24</t>
         </is>
       </c>
     </row>
@@ -60593,11 +60593,11 @@
         <v>5</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>156.4534</v>
+        <v>176.4534</v>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>156:27</t>
+          <t>176:27</t>
         </is>
       </c>
     </row>
@@ -60647,11 +60647,11 @@
         <v>1</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>130.2011</v>
+        <v>134.2011</v>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>130:12</t>
+          <t>134:12</t>
         </is>
       </c>
     </row>
@@ -60674,11 +60674,11 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>125.7029</v>
+        <v>129.7029</v>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>125:42</t>
+          <t>129:42</t>
         </is>
       </c>
     </row>
@@ -60782,11 +60782,11 @@
         <v>1</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>133.1166</v>
+        <v>137.1166</v>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>133:06</t>
+          <t>137:06</t>
         </is>
       </c>
     </row>
@@ -60836,11 +60836,11 @@
         <v>5</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>125.2159</v>
+        <v>145.2159</v>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>125:12</t>
+          <t>145:12</t>
         </is>
       </c>
     </row>
@@ -60863,11 +60863,11 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>142.8659</v>
+        <v>150.8659</v>
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>142:51</t>
+          <t>150:51</t>
         </is>
       </c>
     </row>
@@ -60917,11 +60917,11 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>132.8667</v>
+        <v>136.8667</v>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>132:52</t>
+          <t>136:52</t>
         </is>
       </c>
     </row>
@@ -60944,11 +60944,11 @@
         <v>3</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>181.8535</v>
+        <v>193.8535</v>
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>181:51</t>
+          <t>193:51</t>
         </is>
       </c>
     </row>
@@ -60998,11 +60998,11 @@
         <v>1</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>89.3008</v>
+        <v>93.3008</v>
       </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>89:18</t>
+          <t>93:18</t>
         </is>
       </c>
     </row>
@@ -61025,11 +61025,11 @@
         <v>1</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>205.9208</v>
+        <v>209.9208</v>
       </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>205:55</t>
+          <t>209:55</t>
         </is>
       </c>
     </row>
@@ -61052,11 +61052,11 @@
         <v>4</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>182.6897</v>
+        <v>198.6897</v>
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>182:41</t>
+          <t>198:41</t>
         </is>
       </c>
     </row>
@@ -61079,11 +61079,11 @@
         <v>4</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>177.1919</v>
+        <v>193.1919</v>
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>177:11</t>
+          <t>193:11</t>
         </is>
       </c>
     </row>
@@ -61106,11 +61106,11 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>165.1871</v>
+        <v>169.1871</v>
       </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>165:11</t>
+          <t>169:11</t>
         </is>
       </c>
     </row>
@@ -61133,11 +61133,11 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>137.948</v>
+        <v>141.948</v>
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>137:56</t>
+          <t>141:56</t>
         </is>
       </c>
     </row>
@@ -61160,11 +61160,11 @@
         <v>4</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>93.2255</v>
+        <v>109.2255</v>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>93:13</t>
+          <t>109:13</t>
         </is>
       </c>
     </row>
@@ -61187,11 +61187,11 @@
         <v>2</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>121.2079</v>
+        <v>129.2079</v>
       </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>121:12</t>
+          <t>129:12</t>
         </is>
       </c>
     </row>
@@ -61214,11 +61214,11 @@
         <v>2</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>124.6232</v>
+        <v>132.6232</v>
       </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>124:37</t>
+          <t>132:37</t>
         </is>
       </c>
     </row>
@@ -61241,11 +61241,11 @@
         <v>1</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>110.2924</v>
+        <v>114.2924</v>
       </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>110:17</t>
+          <t>114:17</t>
         </is>
       </c>
     </row>
@@ -61295,11 +61295,11 @@
         <v>2</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>164.6905</v>
+        <v>172.6905</v>
       </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t>164:41</t>
+          <t>172:41</t>
         </is>
       </c>
     </row>
